--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.8048</v>
+        <v>-11.8791</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.555699999999998</v>
+        <v>4.551499999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.78139999999999</v>
+        <v>-21.79119999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.59620000000001</v>
+        <v>-21.56150000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.829399999999995</v>
+        <v>4.760599999999996</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.77969999999999</v>
+        <v>-22.00060000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.0262</v>
+        <v>-11.4039</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.5492</v>
+        <v>-11.3726</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.171099999999996</v>
+        <v>9.198799999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.9199</v>
+        <v>-12.6642</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.788500000000003</v>
+        <v>4.966400000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.721500000000002</v>
+        <v>5.0657</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.593699999999998</v>
+        <v>4.581399999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.69719999999998</v>
+        <v>-19.71299999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.237399999999996</v>
+        <v>9.345499999999994</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.028</v>
+        <v>-11.80910000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.47689999999999</v>
+        <v>-13.79269999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.2886</v>
+        <v>-12.19209999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3724</v>
+        <v>-22.2965</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.50839999999999</v>
+        <v>-12.20269999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.46650000000001</v>
+        <v>-21.49680000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.5767</v>
+        <v>4.619899999999999</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.5204</v>
+        <v>-12.43860000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.565499999999999</v>
+        <v>5.325899999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.03199999999998</v>
+        <v>-20.06209999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.93889999999998</v>
+        <v>-20.04779999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.613499999999998</v>
+        <v>5.302999999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.526599999999998</v>
+        <v>4.858399999999997</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.1204</v>
+        <v>-12.085</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.078000000000007</v>
+        <v>4.880400000000006</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.310599999999998</v>
+        <v>5.937400000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.319099999999999</v>
+        <v>9.309899999999994</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.84220000000001</v>
+        <v>-13.16940000000002</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.499700000000004</v>
+        <v>8.676300000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
